--- a/biology/Médecine/Scrotoplastie/Scrotoplastie.xlsx
+++ b/biology/Médecine/Scrotoplastie/Scrotoplastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La scrotoplastie, aussi connue comme oschéoplastie, est la chirurgie plastique ou de réparation du scrotum.
 Dans le cadre des options chirurgicales pour les hommes trans, la scrotoplastie est l'une des opérations effectuées pour transformer/reformer les organes génitaux externes d'un pénis et d'un scrotum.
